--- a/biology/Zoologie/Cheirurina/Cheirurina.xlsx
+++ b/biology/Zoologie/Cheirurina/Cheirurina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheirurina sont un sous-ordre de trilobites, arthropodes marins aujourd'hui disparus, rattaché à l'ordre des Phacopida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence de la plupart des Phacopida, certains genres des Cheirurina ont des yeux de petite taille, voire absents.
 </t>
@@ -542,9 +556,11 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sous-ordre de trilobites a vécu de l'Ordovicien au Dévonien[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sous-ordre de trilobites a vécu de l'Ordovicien au Dévonien.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des super-familles et familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 février 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 février 2021) :
 super-famille † Cheiruroidea
 famille †Cheiruridae Salter, 1864
 famille †Encrinuridae Angelin, 1854
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Horacio J. Harrington et Armando F. Leanza, Ordovician Trilobites of Argentina, Université du Kansas, 1er mai 1957, 276 p. (lire en ligne)</t>
         </is>
